--- a/the-traveling-salesman-CSE316-F23-Project-UseCasesTest.xlsx
+++ b/the-traveling-salesman-CSE316-F23-Project-UseCasesTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/projectfakeso-the-traveling-salesmen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0301FC-50FD-9944-9E42-05BDA7DDABFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D0CD3-03C2-E742-B9B5-CC89CC7365D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37260" yWindow="9640" windowWidth="39160" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="179">
   <si>
     <t>Test Name</t>
   </si>
@@ -564,14 +564,6 @@
   </si>
   <si>
     <t>Pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">not found </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -701,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,17 +737,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1030,7 +1021,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1046,7 +1037,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1051,7 @@
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1065,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1079,7 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1093,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1116,7 +1107,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1121,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1146,7 +1137,7 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1151,7 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1165,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1179,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1204,7 +1195,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1209,7 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1234,7 +1225,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1248,7 +1239,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1262,7 +1253,7 @@
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1267,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1281,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1304,7 +1295,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
@@ -1318,7 +1309,7 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1332,7 +1323,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
@@ -1340,15 +1331,13 @@
         <v>56</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E26" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1356,15 +1345,13 @@
         <v>58</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E27" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
@@ -1372,15 +1359,13 @@
         <v>60</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E28" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1388,15 +1373,13 @@
         <v>62</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1404,15 +1387,13 @@
         <v>64</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E30" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1428,7 +1409,7 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
@@ -1442,7 +1423,7 @@
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1437,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1470,7 +1451,7 @@
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="7" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1465,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1498,7 +1479,7 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="7" t="s">
         <v>51</v>
       </c>
@@ -1512,7 +1493,7 @@
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
@@ -1526,7 +1507,7 @@
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="7" t="s">
         <v>65</v>
       </c>
@@ -1534,15 +1515,13 @@
         <v>56</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
@@ -1550,15 +1529,13 @@
         <v>58</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E40" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -1566,15 +1543,13 @@
         <v>60</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E41" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1582,15 +1557,13 @@
         <v>62</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E42" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
@@ -1598,15 +1571,13 @@
         <v>64</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1622,7 +1593,7 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
@@ -1636,7 +1607,7 @@
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -1650,7 +1621,7 @@
       <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
@@ -1664,7 +1635,7 @@
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
@@ -1678,7 +1649,7 @@
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="7" t="s">
         <v>74</v>
       </c>
@@ -1686,15 +1657,13 @@
         <v>75</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E49" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1710,7 +1679,7 @@
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="7" t="s">
         <v>78</v>
       </c>
@@ -1724,7 +1693,7 @@
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -1740,7 +1709,7 @@
       <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="7" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1723,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1768,7 +1737,7 @@
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1751,7 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1798,7 +1767,7 @@
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="7" t="s">
         <v>83</v>
       </c>
@@ -1812,7 +1781,7 @@
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="7" t="s">
         <v>85</v>
       </c>
@@ -1826,7 +1795,7 @@
       <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="7" t="s">
         <v>83</v>
       </c>
@@ -1840,7 +1809,7 @@
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="7" t="s">
         <v>88</v>
       </c>
@@ -1848,15 +1817,13 @@
         <v>89</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E60" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="7" t="s">
         <v>83</v>
       </c>
@@ -1870,7 +1837,7 @@
       <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="7" t="s">
         <v>91</v>
       </c>
@@ -1884,7 +1851,7 @@
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="7" t="s">
         <v>91</v>
       </c>
@@ -1898,7 +1865,7 @@
       <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="7" t="s">
         <v>83</v>
       </c>
@@ -1912,7 +1879,7 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1928,7 +1895,7 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="10" t="s">
         <v>83</v>
       </c>
@@ -1942,7 +1909,7 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="10" t="s">
         <v>98</v>
       </c>
@@ -1956,7 +1923,7 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
@@ -1970,7 +1937,7 @@
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="10" t="s">
         <v>88</v>
       </c>
@@ -1978,15 +1945,13 @@
         <v>100</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E69" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="10" t="s">
         <v>83</v>
       </c>
@@ -2000,7 +1965,7 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="10" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +1979,7 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="10" t="s">
         <v>91</v>
       </c>
@@ -2028,7 +1993,7 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="10" t="s">
         <v>83</v>
       </c>
@@ -2042,7 +2007,7 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -2058,7 +2023,7 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A75" s="22"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="10" t="s">
         <v>88</v>
       </c>
@@ -2066,15 +2031,13 @@
         <v>103</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E75" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -2090,7 +2053,7 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="10" t="s">
         <v>88</v>
       </c>
@@ -2104,7 +2067,7 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="10" t="s">
         <v>107</v>
       </c>
@@ -2118,7 +2081,7 @@
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="10" t="s">
         <v>109</v>
       </c>
@@ -2132,7 +2095,7 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>111</v>
       </c>
@@ -2146,7 +2109,7 @@
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="10" t="s">
         <v>113</v>
       </c>
@@ -2160,7 +2123,7 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="10" t="s">
         <v>115</v>
       </c>
@@ -2174,7 +2137,7 @@
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="10" t="s">
         <v>117</v>
       </c>
@@ -2188,7 +2151,7 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -2204,7 +2167,7 @@
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="22"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="10" t="s">
         <v>122</v>
       </c>
@@ -2218,7 +2181,7 @@
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="22"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="10" t="s">
         <v>124</v>
       </c>
@@ -2232,7 +2195,7 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -2248,7 +2211,7 @@
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="22"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="10" t="s">
         <v>129</v>
       </c>
@@ -2262,7 +2225,7 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="22"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="10" t="s">
         <v>131</v>
       </c>
@@ -2276,7 +2239,7 @@
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A90" s="22"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="10" t="s">
         <v>133</v>
       </c>
@@ -2290,7 +2253,7 @@
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="22"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="10" t="s">
         <v>135</v>
       </c>
@@ -2304,7 +2267,7 @@
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="22"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="10" t="s">
         <v>137</v>
       </c>
@@ -2318,7 +2281,7 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="22"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="10" t="s">
         <v>139</v>
       </c>
@@ -2332,7 +2295,7 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="22"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="10" t="s">
         <v>83</v>
       </c>
@@ -2346,7 +2309,7 @@
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A95" s="22"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="10" t="s">
         <v>141</v>
       </c>
@@ -2360,7 +2323,7 @@
       <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="22"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="10" t="s">
         <v>143</v>
       </c>
@@ -2374,7 +2337,7 @@
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="22"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="10" t="s">
         <v>145</v>
       </c>
@@ -2388,7 +2351,7 @@
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="22"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="10" t="s">
         <v>83</v>
       </c>
@@ -2402,7 +2365,7 @@
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="22"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="10" t="s">
         <v>148</v>
       </c>
@@ -2416,7 +2379,7 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="22" t="s">
         <v>150</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -2432,7 +2395,7 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="22"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="10" t="s">
         <v>153</v>
       </c>
@@ -2446,7 +2409,7 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="22"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
@@ -2460,7 +2423,7 @@
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="22"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="10" t="s">
         <v>157</v>
       </c>
@@ -2474,7 +2437,7 @@
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="22"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="10" t="s">
         <v>159</v>
       </c>
@@ -2488,7 +2451,7 @@
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="22"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="10" t="s">
         <v>161</v>
       </c>
@@ -2511,7 +2474,7 @@
         <v>173</v>
       </c>
       <c r="B107" s="10">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -2521,14 +2484,14 @@
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="20" t="s">
-        <v>179</v>
+      <c r="A109" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="B109" s="10">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -2564,18 +2527,11 @@
         <v>172</v>
       </c>
       <c r="B114" s="8">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A99"/>
@@ -2584,6 +2540,13 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A31:A43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/the-traveling-salesman-CSE316-F23-Project-UseCasesTest.xlsx
+++ b/the-traveling-salesman-CSE316-F23-Project-UseCasesTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/projectfakeso-the-traveling-salesmen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D0CD3-03C2-E742-B9B5-CC89CC7365D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F59E30-9433-AA4A-834A-8F6455F86290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,13 +740,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1121,7 +1121,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1179,7 +1179,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1209,7 +1209,7 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1393,7 +1393,7 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1577,7 +1577,7 @@
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="22" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1663,7 +1663,7 @@
       <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1693,7 +1693,7 @@
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -1751,7 +1751,7 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1879,7 +1879,7 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -2007,7 +2007,7 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -2037,7 +2037,7 @@
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -2151,7 +2151,7 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -2195,7 +2195,7 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="20" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -2379,7 +2379,7 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -2527,11 +2527,18 @@
         <v>172</v>
       </c>
       <c r="B114" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A99"/>
@@ -2540,13 +2547,6 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A31:A43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
